--- a/需求文档/第三次数据/色谱数据/405-590.xlsx
+++ b/需求文档/第三次数据/色谱数据/405-590.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\WhiteSpiritAnalysis\需求文档\第三次数据\色谱数据\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D39006F-BDB6-49F0-8085-4C65839DF91D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E001649-B0F9-4870-A112-62F9D1D814DE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -554,10 +554,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:FN48"/>
+  <dimension ref="A1:FN47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:FN48"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -24624,516 +24624,6 @@
         <v>1.0378490513984273</v>
       </c>
     </row>
-    <row r="48" spans="1:170" x14ac:dyDescent="0.25">
-      <c r="A48" s="1"/>
-      <c r="B48" s="2">
-        <v>100</v>
-      </c>
-      <c r="C48" s="2">
-        <v>100</v>
-      </c>
-      <c r="D48" s="2">
-        <v>100</v>
-      </c>
-      <c r="E48" s="2">
-        <v>100</v>
-      </c>
-      <c r="F48" s="2">
-        <v>100</v>
-      </c>
-      <c r="G48" s="2">
-        <v>100</v>
-      </c>
-      <c r="H48" s="2">
-        <v>100</v>
-      </c>
-      <c r="I48" s="2">
-        <v>100</v>
-      </c>
-      <c r="J48" s="2">
-        <v>100</v>
-      </c>
-      <c r="K48" s="3">
-        <v>100</v>
-      </c>
-      <c r="L48" s="3">
-        <v>100</v>
-      </c>
-      <c r="M48" s="2">
-        <v>100</v>
-      </c>
-      <c r="N48" s="2">
-        <v>100</v>
-      </c>
-      <c r="O48" s="2">
-        <v>100</v>
-      </c>
-      <c r="P48" s="2">
-        <v>100</v>
-      </c>
-      <c r="Q48" s="2">
-        <v>100</v>
-      </c>
-      <c r="R48" s="2">
-        <v>100</v>
-      </c>
-      <c r="S48" s="2">
-        <v>100</v>
-      </c>
-      <c r="T48" s="2">
-        <v>100</v>
-      </c>
-      <c r="U48" s="2">
-        <v>100</v>
-      </c>
-      <c r="V48" s="2">
-        <v>100</v>
-      </c>
-      <c r="W48" s="2">
-        <v>100</v>
-      </c>
-      <c r="X48" s="2">
-        <v>100</v>
-      </c>
-      <c r="Y48" s="2">
-        <v>100</v>
-      </c>
-      <c r="Z48" s="2">
-        <v>100</v>
-      </c>
-      <c r="AA48" s="2">
-        <v>100</v>
-      </c>
-      <c r="AB48" s="2">
-        <v>100</v>
-      </c>
-      <c r="AC48" s="2">
-        <v>100</v>
-      </c>
-      <c r="AD48" s="2">
-        <v>100</v>
-      </c>
-      <c r="AE48" s="2">
-        <v>100</v>
-      </c>
-      <c r="AF48" s="2">
-        <v>100</v>
-      </c>
-      <c r="AG48" s="2">
-        <v>100</v>
-      </c>
-      <c r="AH48" s="2">
-        <v>100</v>
-      </c>
-      <c r="AI48" s="2">
-        <v>100</v>
-      </c>
-      <c r="AJ48" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK48" s="2">
-        <v>100</v>
-      </c>
-      <c r="AL48" s="2">
-        <v>100</v>
-      </c>
-      <c r="AM48" s="2">
-        <v>100</v>
-      </c>
-      <c r="AN48" s="2">
-        <v>100</v>
-      </c>
-      <c r="AO48" s="2">
-        <v>100</v>
-      </c>
-      <c r="AP48" s="4">
-        <v>100</v>
-      </c>
-      <c r="AQ48" s="2">
-        <v>100</v>
-      </c>
-      <c r="AR48" s="2">
-        <v>100</v>
-      </c>
-      <c r="AS48" s="5">
-        <v>100</v>
-      </c>
-      <c r="AT48" s="2">
-        <v>100</v>
-      </c>
-      <c r="AU48" s="2">
-        <v>100</v>
-      </c>
-      <c r="AV48" s="2">
-        <v>100</v>
-      </c>
-      <c r="AW48" s="2">
-        <v>100</v>
-      </c>
-      <c r="AX48" s="2">
-        <v>100</v>
-      </c>
-      <c r="AY48" s="2">
-        <v>100</v>
-      </c>
-      <c r="AZ48" s="12">
-        <v>100</v>
-      </c>
-      <c r="BA48" s="9">
-        <v>100</v>
-      </c>
-      <c r="BB48" s="9">
-        <v>100</v>
-      </c>
-      <c r="BC48" s="9">
-        <v>100</v>
-      </c>
-      <c r="BD48" s="9">
-        <v>100</v>
-      </c>
-      <c r="BE48" s="9">
-        <v>100</v>
-      </c>
-      <c r="BF48" s="9">
-        <v>100</v>
-      </c>
-      <c r="BG48" s="9">
-        <v>100</v>
-      </c>
-      <c r="BH48" s="9">
-        <v>100</v>
-      </c>
-      <c r="BI48" s="9">
-        <v>100</v>
-      </c>
-      <c r="BJ48" s="2">
-        <v>100</v>
-      </c>
-      <c r="BK48" s="2">
-        <v>100</v>
-      </c>
-      <c r="BL48" s="2">
-        <v>100</v>
-      </c>
-      <c r="BM48" s="2">
-        <v>100</v>
-      </c>
-      <c r="BN48" s="2">
-        <v>100</v>
-      </c>
-      <c r="BO48" s="2">
-        <v>100</v>
-      </c>
-      <c r="BP48" s="2">
-        <v>100</v>
-      </c>
-      <c r="BQ48" s="2">
-        <v>100</v>
-      </c>
-      <c r="BR48" s="2">
-        <v>100</v>
-      </c>
-      <c r="BS48" s="2">
-        <v>100</v>
-      </c>
-      <c r="BT48" s="2">
-        <v>100</v>
-      </c>
-      <c r="BU48" s="2">
-        <v>100</v>
-      </c>
-      <c r="BV48" s="2">
-        <v>100</v>
-      </c>
-      <c r="BW48" s="2">
-        <v>100</v>
-      </c>
-      <c r="BX48" s="2">
-        <v>100</v>
-      </c>
-      <c r="BY48" s="2">
-        <v>100</v>
-      </c>
-      <c r="BZ48" s="2">
-        <v>100</v>
-      </c>
-      <c r="CA48" s="2">
-        <v>100</v>
-      </c>
-      <c r="CB48" s="2">
-        <v>100</v>
-      </c>
-      <c r="CC48" s="2">
-        <v>100</v>
-      </c>
-      <c r="CD48" s="2">
-        <v>100</v>
-      </c>
-      <c r="CE48" s="2">
-        <v>100</v>
-      </c>
-      <c r="CF48" s="2">
-        <v>100</v>
-      </c>
-      <c r="CG48" s="2">
-        <v>100</v>
-      </c>
-      <c r="CH48" s="2">
-        <v>100</v>
-      </c>
-      <c r="CI48" s="2">
-        <v>100</v>
-      </c>
-      <c r="CJ48" s="2">
-        <v>100</v>
-      </c>
-      <c r="CK48" s="2">
-        <v>100</v>
-      </c>
-      <c r="CL48" s="2">
-        <v>100</v>
-      </c>
-      <c r="CM48" s="2">
-        <v>100</v>
-      </c>
-      <c r="CN48" s="2">
-        <v>100</v>
-      </c>
-      <c r="CO48" s="2">
-        <v>100</v>
-      </c>
-      <c r="CP48" s="2">
-        <v>100</v>
-      </c>
-      <c r="CQ48" s="2">
-        <v>100</v>
-      </c>
-      <c r="CR48" s="2">
-        <v>100</v>
-      </c>
-      <c r="CS48" s="2">
-        <v>100</v>
-      </c>
-      <c r="CT48" s="2">
-        <v>100</v>
-      </c>
-      <c r="CU48" s="2">
-        <v>100</v>
-      </c>
-      <c r="CV48" s="2">
-        <v>100</v>
-      </c>
-      <c r="CW48" s="2">
-        <v>100</v>
-      </c>
-      <c r="CX48" s="5">
-        <v>100</v>
-      </c>
-      <c r="CY48" s="8">
-        <v>100</v>
-      </c>
-      <c r="CZ48" s="8">
-        <v>100</v>
-      </c>
-      <c r="DA48" s="2">
-        <v>100</v>
-      </c>
-      <c r="DB48" s="2">
-        <v>100</v>
-      </c>
-      <c r="DC48" s="2">
-        <v>100</v>
-      </c>
-      <c r="DD48" s="2">
-        <v>100</v>
-      </c>
-      <c r="DE48" s="2">
-        <v>100</v>
-      </c>
-      <c r="DF48" s="2">
-        <v>100</v>
-      </c>
-      <c r="DG48" s="2">
-        <v>100</v>
-      </c>
-      <c r="DH48" s="2">
-        <v>100</v>
-      </c>
-      <c r="DI48" s="2">
-        <v>100</v>
-      </c>
-      <c r="DJ48" s="2">
-        <v>100</v>
-      </c>
-      <c r="DK48" s="2">
-        <v>100</v>
-      </c>
-      <c r="DL48" s="2">
-        <v>100</v>
-      </c>
-      <c r="DM48" s="2">
-        <v>100</v>
-      </c>
-      <c r="DN48" s="2">
-        <v>100</v>
-      </c>
-      <c r="DO48" s="2">
-        <v>100</v>
-      </c>
-      <c r="DP48" s="2">
-        <v>100</v>
-      </c>
-      <c r="DQ48" s="2">
-        <v>100</v>
-      </c>
-      <c r="DR48" s="2">
-        <v>100</v>
-      </c>
-      <c r="DS48" s="2">
-        <v>100</v>
-      </c>
-      <c r="DT48" s="2">
-        <v>100</v>
-      </c>
-      <c r="DU48" s="2">
-        <v>100</v>
-      </c>
-      <c r="DV48" s="2">
-        <v>100</v>
-      </c>
-      <c r="DW48" s="2">
-        <v>100</v>
-      </c>
-      <c r="DX48" s="2">
-        <v>100</v>
-      </c>
-      <c r="DY48" s="2">
-        <v>100</v>
-      </c>
-      <c r="DZ48" s="2">
-        <v>100</v>
-      </c>
-      <c r="EA48" s="2">
-        <v>100</v>
-      </c>
-      <c r="EB48" s="2">
-        <v>100</v>
-      </c>
-      <c r="EC48" s="2">
-        <v>100</v>
-      </c>
-      <c r="ED48" s="2">
-        <v>100</v>
-      </c>
-      <c r="EE48" s="3">
-        <v>100</v>
-      </c>
-      <c r="EF48" s="3">
-        <v>100</v>
-      </c>
-      <c r="EG48" s="2">
-        <v>100</v>
-      </c>
-      <c r="EH48" s="2">
-        <v>100</v>
-      </c>
-      <c r="EI48" s="2">
-        <v>100</v>
-      </c>
-      <c r="EJ48" s="2">
-        <v>100</v>
-      </c>
-      <c r="EK48" s="2">
-        <v>100</v>
-      </c>
-      <c r="EL48" s="2">
-        <v>100</v>
-      </c>
-      <c r="EM48" s="2">
-        <v>100</v>
-      </c>
-      <c r="EN48" s="2">
-        <v>100</v>
-      </c>
-      <c r="EO48" s="2">
-        <v>100</v>
-      </c>
-      <c r="EP48" s="2">
-        <v>100</v>
-      </c>
-      <c r="EQ48" s="2">
-        <v>100</v>
-      </c>
-      <c r="ER48" s="2">
-        <v>100</v>
-      </c>
-      <c r="ES48" s="2">
-        <v>100</v>
-      </c>
-      <c r="ET48" s="2">
-        <v>100</v>
-      </c>
-      <c r="EU48" s="2">
-        <v>100</v>
-      </c>
-      <c r="EV48" s="2">
-        <v>100</v>
-      </c>
-      <c r="EW48" s="2">
-        <v>100</v>
-      </c>
-      <c r="EX48" s="2">
-        <v>100</v>
-      </c>
-      <c r="EY48" s="2">
-        <v>100</v>
-      </c>
-      <c r="EZ48" s="2">
-        <v>100</v>
-      </c>
-      <c r="FA48" s="2">
-        <v>100</v>
-      </c>
-      <c r="FB48" s="2">
-        <v>100</v>
-      </c>
-      <c r="FC48" s="2">
-        <v>100</v>
-      </c>
-      <c r="FD48" s="2">
-        <v>100</v>
-      </c>
-      <c r="FE48" s="2">
-        <v>100</v>
-      </c>
-      <c r="FF48" s="2">
-        <v>100</v>
-      </c>
-      <c r="FG48" s="2">
-        <v>100</v>
-      </c>
-      <c r="FH48" s="2">
-        <v>100</v>
-      </c>
-      <c r="FI48" s="3">
-        <v>100</v>
-      </c>
-      <c r="FJ48" s="3">
-        <v>100</v>
-      </c>
-      <c r="FK48" s="2">
-        <v>100</v>
-      </c>
-      <c r="FL48" s="2">
-        <v>100</v>
-      </c>
-      <c r="FM48" s="2">
-        <v>100</v>
-      </c>
-      <c r="FN48" s="2">
-        <v>100</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
